--- a/data/data_sample.xlsx
+++ b/data/data_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au161118/Dropbox/ASB/Admin stuff/Posters &amp; Papers/PAPERS/EMMA/scripts/emma/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7D693C-76D2-1447-8520-4E003122BB8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54BD3C3-B4C7-6044-80AC-E7554F1D84EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="22280" xr2:uid="{DE75875B-9E30-0D45-AB3E-69017FF91E3A}"/>
   </bookViews>
@@ -405,18 +405,6 @@
     <t>\cite{orquin2020osfb}</t>
   </si>
   <si>
-    <t>Orquin et al. 2019b Study 1</t>
-  </si>
-  <si>
-    <t>Orquin et al. 2019b Study 2</t>
-  </si>
-  <si>
-    <t>Orquin et al. 2019b Study 3</t>
-  </si>
-  <si>
-    <t>Orquin et al. 2019b Study 4</t>
-  </si>
-  <si>
     <t>\cite{paernamets2015a}</t>
   </si>
   <si>
@@ -519,18 +507,9 @@
     <t>\cite{wastlund2015}</t>
   </si>
   <si>
-    <t>Waestlund et al. 2014 Study 2</t>
-  </si>
-  <si>
-    <t>Waestlund et al. 2014 Study 3</t>
-  </si>
-  <si>
     <t>\cite{wolfson2017}</t>
   </si>
   <si>
-    <t>Wolfson et al. 2016</t>
-  </si>
-  <si>
     <t>\cite{zuschke2020}</t>
   </si>
   <si>
@@ -613,6 +592,27 @@
   </si>
   <si>
     <t>Orquin et al. 2013</t>
+  </si>
+  <si>
+    <t>Waestlund et al. 2015 Study 2</t>
+  </si>
+  <si>
+    <t>Waestlund et al. 2015 Study 3</t>
+  </si>
+  <si>
+    <t>Wolfson et al. 2017</t>
+  </si>
+  <si>
+    <t>Orquin et al. 2020 Study 1</t>
+  </si>
+  <si>
+    <t>Orquin et al. 2020 Study 2</t>
+  </si>
+  <si>
+    <t>Orquin et al. 2020 Study 3</t>
+  </si>
+  <si>
+    <t>Orquin et al. 2020 Study 4</t>
   </si>
 </sst>
 </file>
@@ -1003,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A5E7F3-B50B-3741-81E8-2E59ABCBA545}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="172" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="172" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1049,7 +1049,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -1066,7 +1066,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -1083,7 +1083,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -1100,7 +1100,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -1121,7 +1121,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -1142,7 +1142,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -1163,7 +1163,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -1184,7 +1184,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -1205,7 +1205,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -1226,7 +1226,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -1247,7 +1247,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>28</v>
@@ -1270,7 +1270,7 @@
         <v>27</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>31</v>
@@ -1293,7 +1293,7 @@
         <v>27</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>34</v>
@@ -1316,7 +1316,7 @@
         <v>37</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -1351,7 +1351,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C18" s="4">
         <v>66.599999999999994</v>
@@ -1361,7 +1361,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1379,10 +1379,10 @@
         <v>34</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1400,10 +1400,10 @@
         <v>28.5</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1424,7 +1424,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1441,7 +1441,7 @@
         <v>27</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1460,7 +1460,7 @@
         <v>27</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1481,7 +1481,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1502,7 +1502,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1518,10 +1518,10 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1537,10 +1537,10 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1554,10 +1554,10 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1575,13 +1575,13 @@
         <v>21.77</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1594,10 +1594,10 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G30" s="4"/>
     </row>
@@ -1611,10 +1611,10 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G31" s="4"/>
     </row>
@@ -1628,10 +1628,10 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G32" s="4"/>
     </row>
@@ -1645,10 +1645,10 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G33" s="4"/>
     </row>
@@ -1662,10 +1662,10 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G34" s="4"/>
     </row>
@@ -1679,10 +1679,10 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G35" s="4"/>
     </row>
@@ -1703,10 +1703,10 @@
         <v>27</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1722,7 +1722,7 @@
         <v>27</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G37" s="4"/>
     </row>
@@ -1738,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G38" s="4"/>
     </row>
@@ -1759,10 +1759,10 @@
         <v>28.4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G39" s="4"/>
     </row>
@@ -1780,10 +1780,10 @@
         <v>20.07</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G40" s="4"/>
     </row>
@@ -1799,10 +1799,10 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G41" s="4"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>27</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1843,10 +1843,10 @@
         <v>36.5</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G43" s="4"/>
     </row>
@@ -1867,7 +1867,7 @@
         <v>27</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G44" s="4"/>
     </row>
@@ -1884,7 +1884,7 @@
         <v>27</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G45" s="4"/>
     </row>
@@ -1900,13 +1900,13 @@
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1924,7 +1924,7 @@
         <v>27</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G47" s="4"/>
     </row>
@@ -1962,10 +1962,10 @@
         <v>12</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1981,7 +1981,7 @@
         <v>27</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G50" s="4"/>
     </row>
@@ -1990,15 +1990,15 @@
         <v>103</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G51" s="4"/>
     </row>
@@ -2013,7 +2013,7 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G52" s="4"/>
     </row>
@@ -2027,10 +2027,10 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G53" s="4"/>
     </row>
@@ -2045,7 +2045,7 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G54" s="4"/>
     </row>
@@ -2066,7 +2066,7 @@
         <v>12</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G55" s="4"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>27</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2107,13 +2107,13 @@
         <v>22</v>
       </c>
       <c r="E57" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="G57" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2133,10 +2133,10 @@
         <v>27</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2153,19 +2153,19 @@
         <v>22</v>
       </c>
       <c r="E59" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C60" s="4">
         <v>38</v>
@@ -2177,7 +2177,7 @@
         <v>21</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G60" s="4"/>
     </row>
@@ -2198,7 +2198,7 @@
         <v>21</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G61" s="4"/>
     </row>
@@ -2219,7 +2219,7 @@
         <v>21</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G62" s="4"/>
     </row>
@@ -2240,7 +2240,7 @@
         <v>21</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G63" s="4"/>
     </row>
@@ -2249,7 +2249,7 @@
         <v>123</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -2257,7 +2257,7 @@
         <v>21</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G64" s="4"/>
     </row>
@@ -2266,7 +2266,7 @@
         <v>123</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -2274,7 +2274,7 @@
         <v>21</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G65" s="4"/>
     </row>
@@ -2283,7 +2283,7 @@
         <v>123</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -2291,7 +2291,7 @@
         <v>21</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G66" s="4"/>
     </row>
@@ -2300,7 +2300,7 @@
         <v>123</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -2308,16 +2308,16 @@
         <v>21</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C68" s="4">
         <v>68.97</v>
@@ -2326,19 +2326,19 @@
         <v>23.5</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C69" s="4">
         <v>54.05</v>
@@ -2347,19 +2347,19 @@
         <v>26.9</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C70" s="4">
         <v>57</v>
@@ -2369,16 +2369,16 @@
         <v>21</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C71" s="4">
         <v>81.25</v>
@@ -2388,33 +2388,33 @@
         <v>37</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C73" s="4">
         <v>59</v>
@@ -2426,16 +2426,16 @@
         <v>12</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C74" s="4">
         <v>45.16</v>
@@ -2447,16 +2447,16 @@
         <v>12</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -2464,16 +2464,16 @@
         <v>27</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -2481,33 +2481,33 @@
         <v>27</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C78" s="4">
         <v>54</v>
@@ -2516,19 +2516,19 @@
         <v>21.53</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C79" s="4">
         <v>56.7</v>
@@ -2540,18 +2540,18 @@
         <v>27</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C80" s="4">
         <v>100</v>
@@ -2563,16 +2563,16 @@
         <v>37</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C81" s="4">
         <v>93.46</v>
@@ -2584,16 +2584,16 @@
         <v>37</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C82" s="4">
         <v>65</v>
@@ -2605,16 +2605,16 @@
         <v>37</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C83" s="4">
         <v>53.1</v>
@@ -2624,16 +2624,16 @@
         <v>27</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -2641,16 +2641,16 @@
         <v>27</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C85" s="4">
         <v>21.58</v>
@@ -2659,19 +2659,19 @@
         <v>46.93</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="C86" s="4">
         <v>60.6</v>
@@ -2680,19 +2680,19 @@
         <v>22.92</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="C87" s="4">
         <v>50</v>
@@ -2704,18 +2704,18 @@
         <v>27</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -2723,7 +2723,7 @@
         <v>12</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G88" s="4"/>
     </row>
